--- a/MeasResults/PowerSupplySensitivity/Meas_HighRange_Vdio3.0Vdd1.8_80C.xlsx
+++ b/MeasResults/PowerSupplySensitivity/Meas_HighRange_Vdio3.0Vdd1.8_80C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\Research\FASoC\Sky130TempSensor\TestCodes\TestSetup-openFASOC-Sky130TempSensor\MeasResults\PowerSupplySensitivity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF5C158-CBAD-4383-8217-5C3DF961DD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AC25F4-A8C3-498F-B877-6078F4A6822E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1095" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,19 +436,19 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.265625" style="1" customWidth="1"/>
     <col min="2" max="3" width="11.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>26</v>
       </c>
@@ -482,7 +482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -502,7 +502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>80</v>
       </c>
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>80</v>
       </c>
@@ -544,7 +544,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>80</v>
       </c>
@@ -565,7 +565,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>75</v>
       </c>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>85</v>
       </c>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -616,7 +616,7 @@
         <v>6.9737500000000097</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -625,7 +625,7 @@
         <v>4.035849999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
